--- a/stats/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/stats/BoxOffice - Data Retrieval Protocol.xlsx
@@ -840,17 +840,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -955,10 +955,10 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -982,13 +982,13 @@
         <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -1012,13 +1012,13 @@
         <v>4697</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1045,7 +1045,7 @@
         <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1078,10 +1078,10 @@
         <v>338</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1117,10 +1117,10 @@
         <v>380000000</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1153,10 +1153,10 @@
         <v>547.48800000000006</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1195,10 +1195,10 @@
         <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1231,10 +1231,10 @@
         <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1267,10 +1267,10 @@
         <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1303,10 +1303,10 @@
         <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1339,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1375,7 +1375,7 @@
         <v>39</v>
       </c>
       <c r="M14" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1411,10 +1411,10 @@
         <v>39</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1447,7 +1447,7 @@
         <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
         <v>39</v>
       </c>
       <c r="M17" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1516,13 +1516,13 @@
         <v>74205073</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1552,10 +1552,10 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1588,10 +1588,10 @@
         <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1624,13 +1624,13 @@
         <v>12</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1663,10 +1663,10 @@
         <v>39</v>
       </c>
       <c r="M22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1699,10 +1699,10 @@
         <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1735,10 +1735,10 @@
         <v>39</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1771,10 +1771,10 @@
         <v>39</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1807,7 +1807,7 @@
         <v>39</v>
       </c>
       <c r="M26" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1840,10 +1840,10 @@
         <v>149</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1876,10 +1876,10 @@
         <v>65</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M28" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1912,10 +1912,10 @@
         <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M29" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1948,10 +1948,10 @@
         <v>67</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1984,10 +1984,10 @@
         <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M31" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2020,10 +2020,10 @@
         <v>68</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M32" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2056,13 +2056,13 @@
         <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2095,10 +2095,10 @@
         <v>39</v>
       </c>
       <c r="M34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2131,10 +2131,10 @@
         <v>39</v>
       </c>
       <c r="M35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2167,10 +2167,10 @@
         <v>39</v>
       </c>
       <c r="M36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2203,10 +2203,10 @@
         <v>39</v>
       </c>
       <c r="M37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2239,10 +2239,10 @@
         <v>39</v>
       </c>
       <c r="M38" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2275,7 +2275,7 @@
         <v>39</v>
       </c>
       <c r="M39" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2308,10 +2308,10 @@
         <v>1519557910</v>
       </c>
       <c r="L40" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M40" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2344,10 +2344,10 @@
         <v>1519557910</v>
       </c>
       <c r="L41" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M41" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2380,10 +2380,10 @@
         <v>1519557910</v>
       </c>
       <c r="L42" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M42" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2416,13 +2416,13 @@
         <v>29</v>
       </c>
       <c r="L43" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2455,10 +2455,10 @@
         <v>39</v>
       </c>
       <c r="M44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2491,10 +2491,10 @@
         <v>39</v>
       </c>
       <c r="M45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2527,10 +2527,10 @@
         <v>39</v>
       </c>
       <c r="M46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2563,10 +2563,10 @@
         <v>39</v>
       </c>
       <c r="M47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2599,10 +2599,10 @@
         <v>39</v>
       </c>
       <c r="M48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2635,10 +2635,10 @@
         <v>39</v>
       </c>
       <c r="M49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2671,10 +2671,10 @@
         <v>39</v>
       </c>
       <c r="M50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2707,10 +2707,10 @@
         <v>39</v>
       </c>
       <c r="M51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2743,10 +2743,10 @@
         <v>39</v>
       </c>
       <c r="M52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2779,10 +2779,10 @@
         <v>39</v>
       </c>
       <c r="M53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2815,10 +2815,10 @@
         <v>39</v>
       </c>
       <c r="M54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2851,10 +2851,10 @@
         <v>39</v>
       </c>
       <c r="M55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2887,10 +2887,10 @@
         <v>39</v>
       </c>
       <c r="M56" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2923,10 +2923,10 @@
         <v>39</v>
       </c>
       <c r="M57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2959,10 +2959,10 @@
         <v>39</v>
       </c>
       <c r="M58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2995,10 +2995,10 @@
         <v>39</v>
       </c>
       <c r="M59" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3031,10 +3031,10 @@
         <v>39</v>
       </c>
       <c r="M60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3067,10 +3067,10 @@
         <v>39</v>
       </c>
       <c r="M61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3103,10 +3103,10 @@
         <v>39</v>
       </c>
       <c r="M62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3139,7 +3139,7 @@
         <v>39</v>
       </c>
       <c r="M63" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3172,10 +3172,10 @@
         <v>36</v>
       </c>
       <c r="L64" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M64" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3208,10 +3208,10 @@
         <v>24</v>
       </c>
       <c r="L65" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M65" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3244,10 +3244,10 @@
         <v>119</v>
       </c>
       <c r="L66" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M66" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3280,10 +3280,10 @@
         <v>33</v>
       </c>
       <c r="L67" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M67" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3316,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="L68" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M68" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3352,10 +3352,10 @@
         <v>21</v>
       </c>
       <c r="L69" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M69" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3388,10 +3388,10 @@
         <v>18</v>
       </c>
       <c r="L70" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M70" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3424,10 +3424,10 @@
         <v>38</v>
       </c>
       <c r="L71" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M71" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3460,10 +3460,10 @@
         <v>40</v>
       </c>
       <c r="L72" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M72" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3496,10 +3496,10 @@
         <v>89</v>
       </c>
       <c r="L73" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M73" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3532,10 +3532,10 @@
         <v>23</v>
       </c>
       <c r="L74" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M74" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3568,10 +3568,10 @@
         <v>7</v>
       </c>
       <c r="L75" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M75" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3604,10 +3604,10 @@
         <v>3</v>
       </c>
       <c r="L76" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M76" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3640,10 +3640,10 @@
         <v>10</v>
       </c>
       <c r="L77" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M77" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3676,10 +3676,10 @@
         <v>6</v>
       </c>
       <c r="L78" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M78" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3712,10 +3712,10 @@
         <v>4</v>
       </c>
       <c r="L79" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M79" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3748,10 +3748,10 @@
         <v>5</v>
       </c>
       <c r="L80" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M80" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3784,10 +3784,10 @@
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M81" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3820,10 +3820,10 @@
         <v>12</v>
       </c>
       <c r="L82" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M82" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3856,10 +3856,10 @@
         <v>6</v>
       </c>
       <c r="L83" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M83" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3892,10 +3892,10 @@
         <v>2</v>
       </c>
       <c r="L84" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M84" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3928,10 +3928,10 @@
         <v>5</v>
       </c>
       <c r="L85" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M85" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -8500,13 +8500,7 @@
       <c r="D998" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA85">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Numeric"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA85"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <extLst>
